--- a/static/excelOutput/VinExtractor.xlsx
+++ b/static/excelOutput/VinExtractor.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="NHTSA Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Vindicator Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Compare" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4265" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="782">
   <si>
     <t>ABS</t>
   </si>
@@ -2362,924 +2360,6 @@
   </si>
   <si>
     <t>WB10A1307GZ196147</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ERROR</t>
-  </si>
-  <si>
-    <t>Check Digit</t>
-  </si>
-  <si>
-    <t>Input VIN</t>
-  </si>
-  <si>
-    <t>Output VIN</t>
-  </si>
-  <si>
-    <t>Model Year</t>
-  </si>
-  <si>
-    <t>HLDI Class Name</t>
-  </si>
-  <si>
-    <t>Displacement</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Wheelbase</t>
-  </si>
-  <si>
-    <t>Transmission</t>
-  </si>
-  <si>
-    <t>Drive</t>
-  </si>
-  <si>
-    <t>Engine Type</t>
-  </si>
-  <si>
-    <t>Torque</t>
-  </si>
-  <si>
-    <t>HorsePower</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>Suzuki</t>
-  </si>
-  <si>
-    <t>Hayabusa</t>
-  </si>
-  <si>
-    <t>GSX-1300R</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>1,299(cc)</t>
-  </si>
-  <si>
-    <t>$11,099</t>
-  </si>
-  <si>
-    <t>478(lb)</t>
-  </si>
-  <si>
-    <t>58.5(in)</t>
-  </si>
-  <si>
-    <t>Not Available on Model</t>
-  </si>
-  <si>
-    <t>6 speed</t>
-  </si>
-  <si>
-    <t>Chain</t>
-  </si>
-  <si>
-    <t>Inline 4</t>
-  </si>
-  <si>
-    <t>TaoTao</t>
-  </si>
-  <si>
-    <t>ATM50-A1</t>
-  </si>
-  <si>
-    <t>Scooter</t>
-  </si>
-  <si>
-    <t>49(cc)</t>
-  </si>
-  <si>
-    <t>$0</t>
-  </si>
-  <si>
-    <t>220(lb)</t>
-  </si>
-  <si>
-    <t>48(in)</t>
-  </si>
-  <si>
-    <t>CVT automatic</t>
-  </si>
-  <si>
-    <t>Belt</t>
-  </si>
-  <si>
-    <t>Single</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>Harley Davidson</t>
-  </si>
-  <si>
-    <t>Cruiser</t>
-  </si>
-  <si>
-    <t>883(cc)</t>
-  </si>
-  <si>
-    <t>$7,970</t>
-  </si>
-  <si>
-    <t>558(lb)</t>
-  </si>
-  <si>
-    <t>60.4(in)</t>
-  </si>
-  <si>
-    <t>5 speed</t>
-  </si>
-  <si>
-    <t>V-twin</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>Honda</t>
-  </si>
-  <si>
-    <t>VTX1300</t>
-  </si>
-  <si>
-    <t>1,300(cc)</t>
-  </si>
-  <si>
-    <t>$9,399</t>
-  </si>
-  <si>
-    <t>669(lb)</t>
-  </si>
-  <si>
-    <t>65.7(in)</t>
-  </si>
-  <si>
-    <t>Shaft</t>
-  </si>
-  <si>
-    <t>Touring</t>
-  </si>
-  <si>
-    <t>1,584(cc)</t>
-  </si>
-  <si>
-    <t>$18,295</t>
-  </si>
-  <si>
-    <t>733(lb)</t>
-  </si>
-  <si>
-    <t>63.5(in)</t>
-  </si>
-  <si>
-    <t>Optional on Model - unknown if equipped</t>
-  </si>
-  <si>
-    <t>92.6</t>
-  </si>
-  <si>
-    <t>Yamaha</t>
-  </si>
-  <si>
-    <t>V-Star 1100</t>
-  </si>
-  <si>
-    <t>XVS1100/A/C/AC/AT/ATC</t>
-  </si>
-  <si>
-    <t>1,063(cc)</t>
-  </si>
-  <si>
-    <t>$8,599</t>
-  </si>
-  <si>
-    <t>600(lb)</t>
-  </si>
-  <si>
-    <t>64.8(in)</t>
-  </si>
-  <si>
-    <t>Kymco</t>
-  </si>
-  <si>
-    <t>Super 8 150</t>
-  </si>
-  <si>
-    <t>150(cc)</t>
-  </si>
-  <si>
-    <t>$2,299</t>
-  </si>
-  <si>
-    <t>235(lb)</t>
-  </si>
-  <si>
-    <t>52(in)</t>
-  </si>
-  <si>
-    <t>7.8</t>
-  </si>
-  <si>
-    <t>10.3</t>
-  </si>
-  <si>
-    <t>XL 883N</t>
-  </si>
-  <si>
-    <t>$8,999</t>
-  </si>
-  <si>
-    <t>545(lb)</t>
-  </si>
-  <si>
-    <t>59.6(in)</t>
-  </si>
-  <si>
-    <t>53.8</t>
-  </si>
-  <si>
-    <t>Kawasaki</t>
-  </si>
-  <si>
-    <t>Super Sport</t>
-  </si>
-  <si>
-    <t>1,000(cc)</t>
-  </si>
-  <si>
-    <t>$10,999</t>
-  </si>
-  <si>
-    <t>374(lb)</t>
-  </si>
-  <si>
-    <t>54.5(in)</t>
-  </si>
-  <si>
-    <t>Road King Police</t>
-  </si>
-  <si>
-    <t>FLHP</t>
-  </si>
-  <si>
-    <t>$17,975</t>
-  </si>
-  <si>
-    <t>723(lb)</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>Zuma 50F</t>
-  </si>
-  <si>
-    <t>YW50F</t>
-  </si>
-  <si>
-    <t>$2,540</t>
-  </si>
-  <si>
-    <t>185(lb)</t>
-  </si>
-  <si>
-    <t>50.2(in)</t>
-  </si>
-  <si>
-    <t>Automatic</t>
-  </si>
-  <si>
-    <t>Single 2-stroke</t>
-  </si>
-  <si>
-    <t>VIN does not match any valid pattern</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>(lb)</t>
-  </si>
-  <si>
-    <t>(in)</t>
-  </si>
-  <si>
-    <t>VIN Error</t>
-  </si>
-  <si>
-    <t>1,340(cc)</t>
-  </si>
-  <si>
-    <t>$11,999</t>
-  </si>
-  <si>
-    <t>485(lb)</t>
-  </si>
-  <si>
-    <t>599(cc)</t>
-  </si>
-  <si>
-    <t>354(lb)</t>
-  </si>
-  <si>
-    <t>55.1(in)</t>
-  </si>
-  <si>
-    <t>296(cc)</t>
-  </si>
-  <si>
-    <t>$4,799</t>
-  </si>
-  <si>
-    <t>379(lb)</t>
-  </si>
-  <si>
-    <t>55.3(in)</t>
-  </si>
-  <si>
-    <t>Optional on Model - not equipped</t>
-  </si>
-  <si>
-    <t>Parallel twin</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>DR-Z400SM</t>
-  </si>
-  <si>
-    <t>Dual Purpose</t>
-  </si>
-  <si>
-    <t>398(cc)</t>
-  </si>
-  <si>
-    <t>$7,199</t>
-  </si>
-  <si>
-    <t>295(lb)</t>
-  </si>
-  <si>
-    <t>57.5(in)</t>
-  </si>
-  <si>
-    <t>Sportster 1200 Custom</t>
-  </si>
-  <si>
-    <t>XL1200C</t>
-  </si>
-  <si>
-    <t>1,200(cc)</t>
-  </si>
-  <si>
-    <t>$8,620</t>
-  </si>
-  <si>
-    <t>554(lb)</t>
-  </si>
-  <si>
-    <t>59.8(in)</t>
-  </si>
-  <si>
-    <t>Road Star</t>
-  </si>
-  <si>
-    <t>XV1700A/AS/AT/ATS/AC/ASC/ATC/ATSC</t>
-  </si>
-  <si>
-    <t>1,700(cc)</t>
-  </si>
-  <si>
-    <t>679(lb)</t>
-  </si>
-  <si>
-    <t>66.5(in)</t>
-  </si>
-  <si>
-    <t>Baodiao</t>
-  </si>
-  <si>
-    <t>Moped</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>0(cc)</t>
-  </si>
-  <si>
-    <t>0(lb)</t>
-  </si>
-  <si>
-    <t>0(in)</t>
-  </si>
-  <si>
-    <t>Apollo</t>
-  </si>
-  <si>
-    <t>RX250</t>
-  </si>
-  <si>
-    <t>Off Road</t>
-  </si>
-  <si>
-    <t>250(cc)</t>
-  </si>
-  <si>
-    <t>260(lb)</t>
-  </si>
-  <si>
-    <t>55.9(in)</t>
-  </si>
-  <si>
-    <t>17.5</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>1,750(cc)</t>
-  </si>
-  <si>
-    <t>$20,999</t>
-  </si>
-  <si>
-    <t>796(lb)</t>
-  </si>
-  <si>
-    <t>64(in)</t>
-  </si>
-  <si>
-    <t>111.4</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>YZF-R1/YZF-R1C</t>
-  </si>
-  <si>
-    <t>998(cc)</t>
-  </si>
-  <si>
-    <t>$10,299</t>
-  </si>
-  <si>
-    <t>382(lb)</t>
-  </si>
-  <si>
-    <t>54.9(in)</t>
-  </si>
-  <si>
-    <t>Burgman 650 ABS</t>
-  </si>
-  <si>
-    <t>AN650A</t>
-  </si>
-  <si>
-    <t>638(cc)</t>
-  </si>
-  <si>
-    <t>$9,899</t>
-  </si>
-  <si>
-    <t>518(lb)</t>
-  </si>
-  <si>
-    <t>62.8(in)</t>
-  </si>
-  <si>
-    <t>Standard on Model</t>
-  </si>
-  <si>
-    <t>Gear</t>
-  </si>
-  <si>
-    <t>$10,990</t>
-  </si>
-  <si>
-    <t>386(lb)</t>
-  </si>
-  <si>
-    <t>54.1(in)</t>
-  </si>
-  <si>
-    <t>CRF125FB</t>
-  </si>
-  <si>
-    <t>125(cc)</t>
-  </si>
-  <si>
-    <t>$3,399</t>
-  </si>
-  <si>
-    <t>194(lb)</t>
-  </si>
-  <si>
-    <t>49.4(in)</t>
-  </si>
-  <si>
-    <t>4 speed</t>
-  </si>
-  <si>
-    <t>Ninja 300 ABS</t>
-  </si>
-  <si>
-    <t>$5,499</t>
-  </si>
-  <si>
-    <t>383(lb)</t>
-  </si>
-  <si>
-    <t>Optional on Model - equipped</t>
-  </si>
-  <si>
-    <t>Zhejiang Jiajue</t>
-  </si>
-  <si>
-    <t>JJ50QT</t>
-  </si>
-  <si>
-    <t>Hayabusa ABS</t>
-  </si>
-  <si>
-    <t>GSX-1300R ABS</t>
-  </si>
-  <si>
-    <t>$14,599</t>
-  </si>
-  <si>
-    <t>546(lb)</t>
-  </si>
-  <si>
-    <t>58.3(in)</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>365(lb)</t>
-  </si>
-  <si>
-    <t>FLHXSE 3</t>
-  </si>
-  <si>
-    <t>1,800(cc)</t>
-  </si>
-  <si>
-    <t>$32,499</t>
-  </si>
-  <si>
-    <t>814(lb)</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>$10,690</t>
-  </si>
-  <si>
-    <t>VTX1800</t>
-  </si>
-  <si>
-    <t>VTX1800R1</t>
-  </si>
-  <si>
-    <t>$13,099</t>
-  </si>
-  <si>
-    <t>750(lb)</t>
-  </si>
-  <si>
-    <t>67.5(in)</t>
-  </si>
-  <si>
-    <t>Triumph</t>
-  </si>
-  <si>
-    <t>Daytona 675</t>
-  </si>
-  <si>
-    <t>675(cc)</t>
-  </si>
-  <si>
-    <t>363(lb)</t>
-  </si>
-  <si>
-    <t>54.8(in)</t>
-  </si>
-  <si>
-    <t>Inline 3</t>
-  </si>
-  <si>
-    <t>53.1</t>
-  </si>
-  <si>
-    <t>EX500</t>
-  </si>
-  <si>
-    <t>498(cc)</t>
-  </si>
-  <si>
-    <t>$5,049</t>
-  </si>
-  <si>
-    <t>388(lb)</t>
-  </si>
-  <si>
-    <t>56.5(in)</t>
-  </si>
-  <si>
-    <t>GSX-R750</t>
-  </si>
-  <si>
-    <t>750(cc)</t>
-  </si>
-  <si>
-    <t>$9,449</t>
-  </si>
-  <si>
-    <t>55.5(in)</t>
-  </si>
-  <si>
-    <t>Road Glide Special</t>
-  </si>
-  <si>
-    <t>FLTRXS</t>
-  </si>
-  <si>
-    <t>1,870(cc)</t>
-  </si>
-  <si>
-    <t>$27,489</t>
-  </si>
-  <si>
-    <t>820(lb)</t>
-  </si>
-  <si>
-    <t>$7,999</t>
-  </si>
-  <si>
-    <t>548(lb)</t>
-  </si>
-  <si>
-    <t>60(in)</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>Street Glide Special</t>
-  </si>
-  <si>
-    <t>FLHXS</t>
-  </si>
-  <si>
-    <t>1,690(cc)</t>
-  </si>
-  <si>
-    <t>$23,199</t>
-  </si>
-  <si>
-    <t>775(lb)</t>
-  </si>
-  <si>
-    <t>104.7</t>
-  </si>
-  <si>
-    <t>$13,590</t>
-  </si>
-  <si>
-    <t>414(lb)</t>
-  </si>
-  <si>
-    <t>55.7(in)</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>YYZ250</t>
-  </si>
-  <si>
-    <t>249(cc)</t>
-  </si>
-  <si>
-    <t>$7,290</t>
-  </si>
-  <si>
-    <t>227(lb)</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>FJ1200</t>
-  </si>
-  <si>
-    <t>$6,399</t>
-  </si>
-  <si>
-    <t>525(lb)</t>
-  </si>
-  <si>
-    <t>Concours 14 ABS</t>
-  </si>
-  <si>
-    <t>Sport Touring</t>
-  </si>
-  <si>
-    <t>1,352(cc)</t>
-  </si>
-  <si>
-    <t>$15,499</t>
-  </si>
-  <si>
-    <t>690(lb)</t>
-  </si>
-  <si>
-    <t>Vespa/Piaggio</t>
-  </si>
-  <si>
-    <t>X9</t>
-  </si>
-  <si>
-    <t>500(cc)</t>
-  </si>
-  <si>
-    <t>$5,999</t>
-  </si>
-  <si>
-    <t>469(lb)</t>
-  </si>
-  <si>
-    <t>60.2(in)</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>MT07</t>
-  </si>
-  <si>
-    <t>Unclad Sport</t>
-  </si>
-  <si>
-    <t>689(cc)</t>
-  </si>
-  <si>
-    <t>$7,599</t>
-  </si>
-  <si>
-    <t>403(lb)</t>
-  </si>
-  <si>
-    <t>KLE650 Versys</t>
-  </si>
-  <si>
-    <t>649(cc)</t>
-  </si>
-  <si>
-    <t>$6,899</t>
-  </si>
-  <si>
-    <t>399(lb)</t>
-  </si>
-  <si>
-    <t>44.9</t>
-  </si>
-  <si>
-    <t>Gold Wing Tour</t>
-  </si>
-  <si>
-    <t>GL1800D</t>
-  </si>
-  <si>
-    <t>1,833(cc)</t>
-  </si>
-  <si>
-    <t>$27,700</t>
-  </si>
-  <si>
-    <t>833(lb)</t>
-  </si>
-  <si>
-    <t>66.7(in)</t>
-  </si>
-  <si>
-    <t>Push Button or Automatic DCT</t>
-  </si>
-  <si>
-    <t>Opposed 6</t>
-  </si>
-  <si>
-    <t>Reflex</t>
-  </si>
-  <si>
-    <t>NSS250</t>
-  </si>
-  <si>
-    <t>$4,999</t>
-  </si>
-  <si>
-    <t>375(lb)</t>
-  </si>
-  <si>
-    <t>60.8(in)</t>
-  </si>
-  <si>
-    <t>CBR600RR</t>
-  </si>
-  <si>
-    <t>600(cc)</t>
-  </si>
-  <si>
-    <t>$8,799</t>
-  </si>
-  <si>
-    <t>361(lb)</t>
-  </si>
-  <si>
-    <t>54.7(in)</t>
-  </si>
-  <si>
-    <t>$14,030</t>
-  </si>
-  <si>
-    <t>598(lb)</t>
-  </si>
-  <si>
-    <t>Ninja 650 ABS</t>
-  </si>
-  <si>
-    <t>$7,799</t>
-  </si>
-  <si>
-    <t>425(lb)</t>
-  </si>
-  <si>
-    <t>G650GS Sertao</t>
-  </si>
-  <si>
-    <t>652(cc)</t>
-  </si>
-  <si>
-    <t>$8,650</t>
-  </si>
-  <si>
-    <t>387(lb)</t>
-  </si>
-  <si>
-    <t>58.2(in)</t>
-  </si>
-  <si>
-    <t>R1200RT</t>
-  </si>
-  <si>
-    <t>1,170(cc)</t>
-  </si>
-  <si>
-    <t>$17,705</t>
-  </si>
-  <si>
-    <t>59.3(in)</t>
-  </si>
-  <si>
-    <t>Opposed twin</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>sport</t>
-  </si>
-  <si>
-    <t>scooter</t>
-  </si>
-  <si>
-    <t>cruiser</t>
-  </si>
-  <si>
-    <t>touring</t>
-  </si>
-  <si>
-    <t>Rule not Found</t>
   </si>
 </sst>
 </file>
@@ -6082,9 +5162,6 @@
       </c>
     </row>
     <row r="15" spans="1:149">
-      <c r="D15" t="s">
-        <v>149</v>
-      </c>
       <c r="H15" t="s">
         <v>330</v>
       </c>
@@ -6109,6 +5186,9 @@
       <c r="AT15" t="s">
         <v>149</v>
       </c>
+      <c r="AU15" t="s">
+        <v>149</v>
+      </c>
       <c r="AW15" t="s">
         <v>333</v>
       </c>
@@ -6204,7 +5284,7 @@
       </c>
     </row>
     <row r="16" spans="1:149">
-      <c r="D16" t="s">
+      <c r="AU16" t="s">
         <v>149</v>
       </c>
       <c r="BQ16" t="s">
@@ -6829,9 +5909,6 @@
       </c>
     </row>
     <row r="21" spans="1:149">
-      <c r="D21" t="s">
-        <v>149</v>
-      </c>
       <c r="G21" t="s">
         <v>399</v>
       </c>
@@ -6857,6 +5934,9 @@
         <v>149</v>
       </c>
       <c r="AT21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU21" t="s">
         <v>149</v>
       </c>
       <c r="AW21" t="s">
@@ -7588,6 +6668,9 @@
       <c r="C27" t="s">
         <v>149</v>
       </c>
+      <c r="D27" t="s">
+        <v>149</v>
+      </c>
       <c r="L27" t="s">
         <v>149</v>
       </c>
@@ -7616,9 +6699,6 @@
         <v>149</v>
       </c>
       <c r="AN27" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU27" t="s">
         <v>149</v>
       </c>
       <c r="AV27" t="s">
@@ -8336,6 +7416,9 @@
       <c r="C32" t="s">
         <v>149</v>
       </c>
+      <c r="D32" t="s">
+        <v>149</v>
+      </c>
       <c r="L32" t="s">
         <v>149</v>
       </c>
@@ -8364,9 +7447,6 @@
         <v>149</v>
       </c>
       <c r="AN32" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU32" t="s">
         <v>149</v>
       </c>
       <c r="AV32" t="s">
@@ -9117,6 +8197,9 @@
       <c r="C37" t="s">
         <v>149</v>
       </c>
+      <c r="D37" t="s">
+        <v>149</v>
+      </c>
       <c r="L37" t="s">
         <v>149</v>
       </c>
@@ -9145,9 +8228,6 @@
         <v>149</v>
       </c>
       <c r="AN37" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU37" t="s">
         <v>149</v>
       </c>
       <c r="AV37" t="s">
@@ -9406,7 +8486,7 @@
       </c>
     </row>
     <row r="39" spans="3:148">
-      <c r="D39" t="s">
+      <c r="AU39" t="s">
         <v>149</v>
       </c>
       <c r="BQ39" t="s">
@@ -10949,6 +10029,9 @@
       <c r="C50" t="s">
         <v>149</v>
       </c>
+      <c r="D50" t="s">
+        <v>149</v>
+      </c>
       <c r="L50" t="s">
         <v>149</v>
       </c>
@@ -10977,9 +10060,6 @@
         <v>149</v>
       </c>
       <c r="AN50" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU50" t="s">
         <v>149</v>
       </c>
       <c r="AW50" t="s">
@@ -11730,12 +10810,12 @@
       </c>
     </row>
     <row r="55" spans="1:148">
-      <c r="D55" t="s">
-        <v>149</v>
-      </c>
       <c r="F55" t="s">
         <v>717</v>
       </c>
+      <c r="AU55" t="s">
+        <v>149</v>
+      </c>
       <c r="BQ55" t="s">
         <v>718</v>
       </c>
@@ -11750,9 +10830,6 @@
       </c>
     </row>
     <row r="56" spans="1:148">
-      <c r="D56" t="s">
-        <v>149</v>
-      </c>
       <c r="G56" t="s">
         <v>330</v>
       </c>
@@ -11780,6 +10857,9 @@
       <c r="AT56" t="s">
         <v>149</v>
       </c>
+      <c r="AU56" t="s">
+        <v>149</v>
+      </c>
       <c r="AW56" t="s">
         <v>333</v>
       </c>
@@ -11857,7 +10937,7 @@
       </c>
     </row>
     <row r="57" spans="1:148">
-      <c r="D57" t="s">
+      <c r="AU57" t="s">
         <v>149</v>
       </c>
       <c r="BQ57" t="s">
@@ -12646,4351 +11726,6 @@
       </c>
       <c r="EL62" t="s">
         <v>171</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V62"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" t="s">
-        <v>782</v>
-      </c>
-      <c r="B1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" t="s">
-        <v>783</v>
-      </c>
-      <c r="D1" t="s">
-        <v>784</v>
-      </c>
-      <c r="E1" t="s">
-        <v>785</v>
-      </c>
-      <c r="F1" t="s">
-        <v>786</v>
-      </c>
-      <c r="G1" t="s">
-        <v>787</v>
-      </c>
-      <c r="H1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" t="s">
-        <v>788</v>
-      </c>
-      <c r="L1" t="s">
-        <v>789</v>
-      </c>
-      <c r="M1" t="s">
-        <v>790</v>
-      </c>
-      <c r="N1" t="s">
-        <v>791</v>
-      </c>
-      <c r="O1" t="s">
-        <v>792</v>
-      </c>
-      <c r="P1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>793</v>
-      </c>
-      <c r="R1" t="s">
-        <v>794</v>
-      </c>
-      <c r="S1" t="s">
-        <v>795</v>
-      </c>
-      <c r="T1" t="s">
-        <v>796</v>
-      </c>
-      <c r="U1" t="s">
-        <v>797</v>
-      </c>
-      <c r="V1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" t="s">
-        <v>798</v>
-      </c>
-      <c r="E2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H2" t="s">
-        <v>799</v>
-      </c>
-      <c r="I2" t="s">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>801</v>
-      </c>
-      <c r="K2" t="s">
-        <v>802</v>
-      </c>
-      <c r="L2" t="s">
-        <v>803</v>
-      </c>
-      <c r="M2" t="s">
-        <v>804</v>
-      </c>
-      <c r="N2" t="s">
-        <v>805</v>
-      </c>
-      <c r="O2" t="s">
-        <v>806</v>
-      </c>
-      <c r="P2" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>808</v>
-      </c>
-      <c r="R2" t="s">
-        <v>809</v>
-      </c>
-      <c r="S2" t="s">
-        <v>810</v>
-      </c>
-      <c r="T2" t="s">
-        <v>157</v>
-      </c>
-      <c r="U2" t="s">
-        <v>157</v>
-      </c>
-      <c r="V2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" t="s">
-        <v>798</v>
-      </c>
-      <c r="E3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H3" t="s">
-        <v>811</v>
-      </c>
-      <c r="I3" t="s">
-        <v>812</v>
-      </c>
-      <c r="J3" t="s">
-        <v>812</v>
-      </c>
-      <c r="K3" t="s">
-        <v>813</v>
-      </c>
-      <c r="L3" t="s">
-        <v>814</v>
-      </c>
-      <c r="M3" t="s">
-        <v>815</v>
-      </c>
-      <c r="N3" t="s">
-        <v>816</v>
-      </c>
-      <c r="O3" t="s">
-        <v>817</v>
-      </c>
-      <c r="P3" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>818</v>
-      </c>
-      <c r="R3" t="s">
-        <v>819</v>
-      </c>
-      <c r="S3" t="s">
-        <v>820</v>
-      </c>
-      <c r="T3" t="s">
-        <v>157</v>
-      </c>
-      <c r="U3" t="s">
-        <v>821</v>
-      </c>
-      <c r="V3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D4" t="s">
-        <v>798</v>
-      </c>
-      <c r="E4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F4" t="s">
-        <v>214</v>
-      </c>
-      <c r="G4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H4" t="s">
-        <v>822</v>
-      </c>
-      <c r="I4" t="s">
-        <v>205</v>
-      </c>
-      <c r="J4" t="s">
-        <v>213</v>
-      </c>
-      <c r="K4" t="s">
-        <v>823</v>
-      </c>
-      <c r="L4" t="s">
-        <v>824</v>
-      </c>
-      <c r="M4" t="s">
-        <v>825</v>
-      </c>
-      <c r="N4" t="s">
-        <v>826</v>
-      </c>
-      <c r="O4" t="s">
-        <v>827</v>
-      </c>
-      <c r="P4" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>828</v>
-      </c>
-      <c r="R4" t="s">
-        <v>819</v>
-      </c>
-      <c r="S4" t="s">
-        <v>829</v>
-      </c>
-      <c r="T4" t="s">
-        <v>830</v>
-      </c>
-      <c r="U4" t="s">
-        <v>157</v>
-      </c>
-      <c r="V4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D5" t="s">
-        <v>798</v>
-      </c>
-      <c r="E5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G5" t="s">
-        <v>166</v>
-      </c>
-      <c r="H5" t="s">
-        <v>799</v>
-      </c>
-      <c r="I5" t="s">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>801</v>
-      </c>
-      <c r="K5" t="s">
-        <v>802</v>
-      </c>
-      <c r="L5" t="s">
-        <v>803</v>
-      </c>
-      <c r="M5" t="s">
-        <v>804</v>
-      </c>
-      <c r="N5" t="s">
-        <v>805</v>
-      </c>
-      <c r="O5" t="s">
-        <v>806</v>
-      </c>
-      <c r="P5" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>808</v>
-      </c>
-      <c r="R5" t="s">
-        <v>809</v>
-      </c>
-      <c r="S5" t="s">
-        <v>810</v>
-      </c>
-      <c r="T5" t="s">
-        <v>157</v>
-      </c>
-      <c r="U5" t="s">
-        <v>157</v>
-      </c>
-      <c r="V5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D6" t="s">
-        <v>798</v>
-      </c>
-      <c r="E6" t="s">
-        <v>232</v>
-      </c>
-      <c r="F6" t="s">
-        <v>232</v>
-      </c>
-      <c r="G6" t="s">
-        <v>207</v>
-      </c>
-      <c r="H6" t="s">
-        <v>831</v>
-      </c>
-      <c r="I6" t="s">
-        <v>832</v>
-      </c>
-      <c r="J6" t="s">
-        <v>227</v>
-      </c>
-      <c r="K6" t="s">
-        <v>823</v>
-      </c>
-      <c r="L6" t="s">
-        <v>833</v>
-      </c>
-      <c r="M6" t="s">
-        <v>834</v>
-      </c>
-      <c r="N6" t="s">
-        <v>835</v>
-      </c>
-      <c r="O6" t="s">
-        <v>836</v>
-      </c>
-      <c r="P6" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>828</v>
-      </c>
-      <c r="R6" t="s">
-        <v>837</v>
-      </c>
-      <c r="S6" t="s">
-        <v>829</v>
-      </c>
-      <c r="T6" t="s">
-        <v>157</v>
-      </c>
-      <c r="U6" t="s">
-        <v>157</v>
-      </c>
-      <c r="V6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D7" t="s">
-        <v>798</v>
-      </c>
-      <c r="E7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H7" t="s">
-        <v>822</v>
-      </c>
-      <c r="I7" t="s">
-        <v>241</v>
-      </c>
-      <c r="J7" t="s">
-        <v>249</v>
-      </c>
-      <c r="K7" t="s">
-        <v>838</v>
-      </c>
-      <c r="L7" t="s">
-        <v>839</v>
-      </c>
-      <c r="M7" t="s">
-        <v>840</v>
-      </c>
-      <c r="N7" t="s">
-        <v>841</v>
-      </c>
-      <c r="O7" t="s">
-        <v>842</v>
-      </c>
-      <c r="P7" t="s">
-        <v>843</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>808</v>
-      </c>
-      <c r="R7" t="s">
-        <v>819</v>
-      </c>
-      <c r="S7" t="s">
-        <v>829</v>
-      </c>
-      <c r="T7" t="s">
-        <v>844</v>
-      </c>
-      <c r="U7" t="s">
-        <v>157</v>
-      </c>
-      <c r="V7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D8" t="s">
-        <v>798</v>
-      </c>
-      <c r="E8" t="s">
-        <v>263</v>
-      </c>
-      <c r="F8" t="s">
-        <v>263</v>
-      </c>
-      <c r="G8" t="s">
-        <v>261</v>
-      </c>
-      <c r="H8" t="s">
-        <v>845</v>
-      </c>
-      <c r="I8" t="s">
-        <v>846</v>
-      </c>
-      <c r="J8" t="s">
-        <v>847</v>
-      </c>
-      <c r="K8" t="s">
-        <v>823</v>
-      </c>
-      <c r="L8" t="s">
-        <v>848</v>
-      </c>
-      <c r="M8" t="s">
-        <v>849</v>
-      </c>
-      <c r="N8" t="s">
-        <v>850</v>
-      </c>
-      <c r="O8" t="s">
-        <v>851</v>
-      </c>
-      <c r="P8" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>828</v>
-      </c>
-      <c r="R8" t="s">
-        <v>837</v>
-      </c>
-      <c r="S8" t="s">
-        <v>829</v>
-      </c>
-      <c r="T8" t="s">
-        <v>157</v>
-      </c>
-      <c r="U8" t="s">
-        <v>157</v>
-      </c>
-      <c r="V8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>280</v>
-      </c>
-      <c r="D9" t="s">
-        <v>798</v>
-      </c>
-      <c r="E9" t="s">
-        <v>280</v>
-      </c>
-      <c r="F9" t="s">
-        <v>280</v>
-      </c>
-      <c r="G9" t="s">
-        <v>275</v>
-      </c>
-      <c r="H9" t="s">
-        <v>852</v>
-      </c>
-      <c r="I9" t="s">
-        <v>853</v>
-      </c>
-      <c r="J9" t="s">
-        <v>853</v>
-      </c>
-      <c r="K9" t="s">
-        <v>813</v>
-      </c>
-      <c r="L9" t="s">
-        <v>854</v>
-      </c>
-      <c r="M9" t="s">
-        <v>855</v>
-      </c>
-      <c r="N9" t="s">
-        <v>856</v>
-      </c>
-      <c r="O9" t="s">
-        <v>857</v>
-      </c>
-      <c r="P9" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>818</v>
-      </c>
-      <c r="R9" t="s">
-        <v>837</v>
-      </c>
-      <c r="S9" t="s">
-        <v>820</v>
-      </c>
-      <c r="T9" t="s">
-        <v>858</v>
-      </c>
-      <c r="U9" t="s">
-        <v>859</v>
-      </c>
-      <c r="V9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>286</v>
-      </c>
-      <c r="D10" t="s">
-        <v>798</v>
-      </c>
-      <c r="E10" t="s">
-        <v>286</v>
-      </c>
-      <c r="F10" t="s">
-        <v>286</v>
-      </c>
-      <c r="G10" t="s">
-        <v>275</v>
-      </c>
-      <c r="H10" t="s">
-        <v>822</v>
-      </c>
-      <c r="I10" t="s">
-        <v>616</v>
-      </c>
-      <c r="J10" t="s">
-        <v>860</v>
-      </c>
-      <c r="K10" t="s">
-        <v>823</v>
-      </c>
-      <c r="L10" t="s">
-        <v>824</v>
-      </c>
-      <c r="M10" t="s">
-        <v>861</v>
-      </c>
-      <c r="N10" t="s">
-        <v>862</v>
-      </c>
-      <c r="O10" t="s">
-        <v>863</v>
-      </c>
-      <c r="P10" t="s">
-        <v>843</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>828</v>
-      </c>
-      <c r="R10" t="s">
-        <v>819</v>
-      </c>
-      <c r="S10" t="s">
-        <v>829</v>
-      </c>
-      <c r="T10" t="s">
-        <v>864</v>
-      </c>
-      <c r="U10" t="s">
-        <v>613</v>
-      </c>
-      <c r="V10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>303</v>
-      </c>
-      <c r="D11" t="s">
-        <v>798</v>
-      </c>
-      <c r="E11" t="s">
-        <v>303</v>
-      </c>
-      <c r="F11" t="s">
-        <v>303</v>
-      </c>
-      <c r="G11" t="s">
-        <v>207</v>
-      </c>
-      <c r="H11" t="s">
-        <v>865</v>
-      </c>
-      <c r="I11" t="s">
-        <v>297</v>
-      </c>
-      <c r="J11" t="s">
-        <v>302</v>
-      </c>
-      <c r="K11" t="s">
-        <v>866</v>
-      </c>
-      <c r="L11" t="s">
-        <v>867</v>
-      </c>
-      <c r="M11" t="s">
-        <v>868</v>
-      </c>
-      <c r="N11" t="s">
-        <v>869</v>
-      </c>
-      <c r="O11" t="s">
-        <v>870</v>
-      </c>
-      <c r="P11" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>808</v>
-      </c>
-      <c r="R11" t="s">
-        <v>809</v>
-      </c>
-      <c r="S11" t="s">
-        <v>810</v>
-      </c>
-      <c r="T11" t="s">
-        <v>157</v>
-      </c>
-      <c r="U11" t="s">
-        <v>157</v>
-      </c>
-      <c r="V11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>312</v>
-      </c>
-      <c r="D12" t="s">
-        <v>798</v>
-      </c>
-      <c r="E12" t="s">
-        <v>312</v>
-      </c>
-      <c r="F12" t="s">
-        <v>312</v>
-      </c>
-      <c r="G12" t="s">
-        <v>243</v>
-      </c>
-      <c r="H12" t="s">
-        <v>822</v>
-      </c>
-      <c r="I12" t="s">
-        <v>871</v>
-      </c>
-      <c r="J12" t="s">
-        <v>872</v>
-      </c>
-      <c r="K12" t="s">
-        <v>838</v>
-      </c>
-      <c r="L12" t="s">
-        <v>839</v>
-      </c>
-      <c r="M12" t="s">
-        <v>873</v>
-      </c>
-      <c r="N12" t="s">
-        <v>874</v>
-      </c>
-      <c r="O12" t="s">
-        <v>842</v>
-      </c>
-      <c r="P12" t="s">
-        <v>843</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>808</v>
-      </c>
-      <c r="R12" t="s">
-        <v>819</v>
-      </c>
-      <c r="S12" t="s">
-        <v>829</v>
-      </c>
-      <c r="T12" t="s">
-        <v>875</v>
-      </c>
-      <c r="U12" t="s">
-        <v>157</v>
-      </c>
-      <c r="V12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>315</v>
-      </c>
-      <c r="D13" t="s">
-        <v>798</v>
-      </c>
-      <c r="E13" t="s">
-        <v>315</v>
-      </c>
-      <c r="F13" t="s">
-        <v>315</v>
-      </c>
-      <c r="G13" t="s">
-        <v>186</v>
-      </c>
-      <c r="H13" t="s">
-        <v>811</v>
-      </c>
-      <c r="I13" t="s">
-        <v>313</v>
-      </c>
-      <c r="J13" t="s">
-        <v>313</v>
-      </c>
-      <c r="K13" t="s">
-        <v>813</v>
-      </c>
-      <c r="L13" t="s">
-        <v>814</v>
-      </c>
-      <c r="M13" t="s">
-        <v>815</v>
-      </c>
-      <c r="N13" t="s">
-        <v>816</v>
-      </c>
-      <c r="O13" t="s">
-        <v>817</v>
-      </c>
-      <c r="P13" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>818</v>
-      </c>
-      <c r="R13" t="s">
-        <v>819</v>
-      </c>
-      <c r="S13" t="s">
-        <v>820</v>
-      </c>
-      <c r="T13" t="s">
-        <v>157</v>
-      </c>
-      <c r="U13" t="s">
-        <v>821</v>
-      </c>
-      <c r="V13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>329</v>
-      </c>
-      <c r="D14" t="s">
-        <v>798</v>
-      </c>
-      <c r="E14" t="s">
-        <v>329</v>
-      </c>
-      <c r="F14" t="s">
-        <v>329</v>
-      </c>
-      <c r="G14" t="s">
-        <v>324</v>
-      </c>
-      <c r="H14" t="s">
-        <v>845</v>
-      </c>
-      <c r="I14" t="s">
-        <v>876</v>
-      </c>
-      <c r="J14" t="s">
-        <v>877</v>
-      </c>
-      <c r="K14" t="s">
-        <v>813</v>
-      </c>
-      <c r="L14" t="s">
-        <v>814</v>
-      </c>
-      <c r="M14" t="s">
-        <v>878</v>
-      </c>
-      <c r="N14" t="s">
-        <v>879</v>
-      </c>
-      <c r="O14" t="s">
-        <v>880</v>
-      </c>
-      <c r="P14" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>881</v>
-      </c>
-      <c r="R14" t="s">
-        <v>819</v>
-      </c>
-      <c r="S14" t="s">
-        <v>882</v>
-      </c>
-      <c r="T14" t="s">
-        <v>157</v>
-      </c>
-      <c r="U14" t="s">
-        <v>157</v>
-      </c>
-      <c r="V14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>352</v>
-      </c>
-      <c r="C15" t="s">
-        <v>883</v>
-      </c>
-      <c r="D15" t="s">
-        <v>798</v>
-      </c>
-      <c r="E15" t="s">
-        <v>352</v>
-      </c>
-      <c r="F15" t="s">
-        <v>352</v>
-      </c>
-      <c r="G15" t="s">
-        <v>884</v>
-      </c>
-      <c r="H15" t="s">
-        <v>884</v>
-      </c>
-      <c r="I15" t="s">
-        <v>884</v>
-      </c>
-      <c r="J15" t="s">
-        <v>884</v>
-      </c>
-      <c r="L15" t="s">
-        <v>884</v>
-      </c>
-      <c r="M15" t="s">
-        <v>815</v>
-      </c>
-      <c r="N15" t="s">
-        <v>885</v>
-      </c>
-      <c r="O15" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>364</v>
-      </c>
-      <c r="D17" t="s">
-        <v>798</v>
-      </c>
-      <c r="E17" t="s">
-        <v>364</v>
-      </c>
-      <c r="F17" t="s">
-        <v>364</v>
-      </c>
-      <c r="G17" t="s">
-        <v>362</v>
-      </c>
-      <c r="H17" t="s">
-        <v>799</v>
-      </c>
-      <c r="I17" t="s">
-        <v>800</v>
-      </c>
-      <c r="J17" t="s">
-        <v>801</v>
-      </c>
-      <c r="K17" t="s">
-        <v>802</v>
-      </c>
-      <c r="L17" t="s">
-        <v>888</v>
-      </c>
-      <c r="M17" t="s">
-        <v>889</v>
-      </c>
-      <c r="N17" t="s">
-        <v>890</v>
-      </c>
-      <c r="O17" t="s">
-        <v>806</v>
-      </c>
-      <c r="P17" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>808</v>
-      </c>
-      <c r="R17" t="s">
-        <v>809</v>
-      </c>
-      <c r="S17" t="s">
-        <v>810</v>
-      </c>
-      <c r="T17" t="s">
-        <v>157</v>
-      </c>
-      <c r="U17" t="s">
-        <v>157</v>
-      </c>
-      <c r="V17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>373</v>
-      </c>
-      <c r="D18" t="s">
-        <v>798</v>
-      </c>
-      <c r="E18" t="s">
-        <v>373</v>
-      </c>
-      <c r="F18" t="s">
-        <v>373</v>
-      </c>
-      <c r="G18" t="s">
-        <v>362</v>
-      </c>
-      <c r="H18" t="s">
-        <v>799</v>
-      </c>
-      <c r="I18" t="s">
-        <v>371</v>
-      </c>
-      <c r="J18" t="s">
-        <v>371</v>
-      </c>
-      <c r="K18" t="s">
-        <v>866</v>
-      </c>
-      <c r="L18" t="s">
-        <v>891</v>
-      </c>
-      <c r="M18" t="s">
-        <v>834</v>
-      </c>
-      <c r="N18" t="s">
-        <v>892</v>
-      </c>
-      <c r="O18" t="s">
-        <v>893</v>
-      </c>
-      <c r="P18" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>808</v>
-      </c>
-      <c r="R18" t="s">
-        <v>809</v>
-      </c>
-      <c r="S18" t="s">
-        <v>810</v>
-      </c>
-      <c r="T18" t="s">
-        <v>157</v>
-      </c>
-      <c r="U18" t="s">
-        <v>157</v>
-      </c>
-      <c r="V18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>387</v>
-      </c>
-      <c r="D19" t="s">
-        <v>798</v>
-      </c>
-      <c r="E19" t="s">
-        <v>387</v>
-      </c>
-      <c r="F19" t="s">
-        <v>387</v>
-      </c>
-      <c r="G19" t="s">
-        <v>324</v>
-      </c>
-      <c r="H19" t="s">
-        <v>865</v>
-      </c>
-      <c r="I19" t="s">
-        <v>379</v>
-      </c>
-      <c r="J19" t="s">
-        <v>379</v>
-      </c>
-      <c r="K19" t="s">
-        <v>802</v>
-      </c>
-      <c r="L19" t="s">
-        <v>894</v>
-      </c>
-      <c r="M19" t="s">
-        <v>895</v>
-      </c>
-      <c r="N19" t="s">
-        <v>896</v>
-      </c>
-      <c r="O19" t="s">
-        <v>897</v>
-      </c>
-      <c r="P19" t="s">
-        <v>898</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>808</v>
-      </c>
-      <c r="R19" t="s">
-        <v>809</v>
-      </c>
-      <c r="S19" t="s">
-        <v>899</v>
-      </c>
-      <c r="T19" t="s">
-        <v>157</v>
-      </c>
-      <c r="U19" t="s">
-        <v>900</v>
-      </c>
-      <c r="V19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>398</v>
-      </c>
-      <c r="D20" t="s">
-        <v>798</v>
-      </c>
-      <c r="E20" t="s">
-        <v>398</v>
-      </c>
-      <c r="F20" t="s">
-        <v>398</v>
-      </c>
-      <c r="G20" t="s">
-        <v>397</v>
-      </c>
-      <c r="H20" t="s">
-        <v>799</v>
-      </c>
-      <c r="I20" t="s">
-        <v>901</v>
-      </c>
-      <c r="J20" t="s">
-        <v>901</v>
-      </c>
-      <c r="K20" t="s">
-        <v>902</v>
-      </c>
-      <c r="L20" t="s">
-        <v>903</v>
-      </c>
-      <c r="M20" t="s">
-        <v>904</v>
-      </c>
-      <c r="N20" t="s">
-        <v>905</v>
-      </c>
-      <c r="O20" t="s">
-        <v>906</v>
-      </c>
-      <c r="P20" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>828</v>
-      </c>
-      <c r="R20" t="s">
-        <v>809</v>
-      </c>
-      <c r="S20" t="s">
-        <v>820</v>
-      </c>
-      <c r="T20" t="s">
-        <v>157</v>
-      </c>
-      <c r="U20" t="s">
-        <v>392</v>
-      </c>
-      <c r="V20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>419</v>
-      </c>
-      <c r="C21" t="s">
-        <v>883</v>
-      </c>
-      <c r="D21" t="s">
-        <v>798</v>
-      </c>
-      <c r="E21" t="s">
-        <v>419</v>
-      </c>
-      <c r="F21" t="s">
-        <v>419</v>
-      </c>
-      <c r="G21" t="s">
-        <v>884</v>
-      </c>
-      <c r="H21" t="s">
-        <v>884</v>
-      </c>
-      <c r="I21" t="s">
-        <v>884</v>
-      </c>
-      <c r="J21" t="s">
-        <v>884</v>
-      </c>
-      <c r="L21" t="s">
-        <v>884</v>
-      </c>
-      <c r="M21" t="s">
-        <v>815</v>
-      </c>
-      <c r="N21" t="s">
-        <v>885</v>
-      </c>
-      <c r="O21" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>430</v>
-      </c>
-      <c r="D22" t="s">
-        <v>798</v>
-      </c>
-      <c r="E22" t="s">
-        <v>430</v>
-      </c>
-      <c r="F22" t="s">
-        <v>430</v>
-      </c>
-      <c r="G22" t="s">
-        <v>428</v>
-      </c>
-      <c r="H22" t="s">
-        <v>822</v>
-      </c>
-      <c r="I22" t="s">
-        <v>907</v>
-      </c>
-      <c r="J22" t="s">
-        <v>908</v>
-      </c>
-      <c r="K22" t="s">
-        <v>823</v>
-      </c>
-      <c r="L22" t="s">
-        <v>909</v>
-      </c>
-      <c r="M22" t="s">
-        <v>910</v>
-      </c>
-      <c r="N22" t="s">
-        <v>911</v>
-      </c>
-      <c r="O22" t="s">
-        <v>912</v>
-      </c>
-      <c r="P22" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>828</v>
-      </c>
-      <c r="R22" t="s">
-        <v>819</v>
-      </c>
-      <c r="S22" t="s">
-        <v>829</v>
-      </c>
-      <c r="T22" t="s">
-        <v>620</v>
-      </c>
-      <c r="U22" t="s">
-        <v>157</v>
-      </c>
-      <c r="V22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>436</v>
-      </c>
-      <c r="D23" t="s">
-        <v>798</v>
-      </c>
-      <c r="E23" t="s">
-        <v>436</v>
-      </c>
-      <c r="F23" t="s">
-        <v>436</v>
-      </c>
-      <c r="G23" t="s">
-        <v>207</v>
-      </c>
-      <c r="H23" t="s">
-        <v>845</v>
-      </c>
-      <c r="I23" t="s">
-        <v>913</v>
-      </c>
-      <c r="J23" t="s">
-        <v>914</v>
-      </c>
-      <c r="K23" t="s">
-        <v>823</v>
-      </c>
-      <c r="L23" t="s">
-        <v>915</v>
-      </c>
-      <c r="M23" t="s">
-        <v>804</v>
-      </c>
-      <c r="N23" t="s">
-        <v>916</v>
-      </c>
-      <c r="O23" t="s">
-        <v>917</v>
-      </c>
-      <c r="P23" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>828</v>
-      </c>
-      <c r="R23" t="s">
-        <v>819</v>
-      </c>
-      <c r="S23" t="s">
-        <v>829</v>
-      </c>
-      <c r="T23" t="s">
-        <v>157</v>
-      </c>
-      <c r="U23" t="s">
-        <v>157</v>
-      </c>
-      <c r="V23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>450</v>
-      </c>
-      <c r="D24" t="s">
-        <v>798</v>
-      </c>
-      <c r="E24" t="s">
-        <v>450</v>
-      </c>
-      <c r="F24" t="s">
-        <v>450</v>
-      </c>
-      <c r="G24" t="s">
-        <v>345</v>
-      </c>
-      <c r="H24" t="s">
-        <v>918</v>
-      </c>
-      <c r="I24" t="s">
-        <v>919</v>
-      </c>
-      <c r="J24" t="s">
-        <v>919</v>
-      </c>
-      <c r="K24" t="s">
-        <v>920</v>
-      </c>
-      <c r="L24" t="s">
-        <v>921</v>
-      </c>
-      <c r="M24" t="s">
-        <v>815</v>
-      </c>
-      <c r="N24" t="s">
-        <v>922</v>
-      </c>
-      <c r="O24" t="s">
-        <v>923</v>
-      </c>
-      <c r="P24" t="s">
-        <v>807</v>
-      </c>
-      <c r="S24" t="s">
-        <v>820</v>
-      </c>
-      <c r="T24" t="s">
-        <v>157</v>
-      </c>
-      <c r="U24" t="s">
-        <v>157</v>
-      </c>
-      <c r="V24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>469</v>
-      </c>
-      <c r="D25" t="s">
-        <v>798</v>
-      </c>
-      <c r="E25" t="s">
-        <v>469</v>
-      </c>
-      <c r="F25" t="s">
-        <v>469</v>
-      </c>
-      <c r="G25" t="s">
-        <v>186</v>
-      </c>
-      <c r="H25" t="s">
-        <v>924</v>
-      </c>
-      <c r="I25" t="s">
-        <v>925</v>
-      </c>
-      <c r="J25" t="s">
-        <v>925</v>
-      </c>
-      <c r="K25" t="s">
-        <v>926</v>
-      </c>
-      <c r="L25" t="s">
-        <v>927</v>
-      </c>
-      <c r="M25" t="s">
-        <v>815</v>
-      </c>
-      <c r="N25" t="s">
-        <v>928</v>
-      </c>
-      <c r="O25" t="s">
-        <v>929</v>
-      </c>
-      <c r="P25" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>828</v>
-      </c>
-      <c r="R25" t="s">
-        <v>809</v>
-      </c>
-      <c r="S25" t="s">
-        <v>820</v>
-      </c>
-      <c r="T25" t="s">
-        <v>930</v>
-      </c>
-      <c r="U25" t="s">
-        <v>931</v>
-      </c>
-      <c r="V25" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>470</v>
-      </c>
-      <c r="C26" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>479</v>
-      </c>
-      <c r="D27" t="s">
-        <v>798</v>
-      </c>
-      <c r="E27" t="s">
-        <v>479</v>
-      </c>
-      <c r="F27" t="s">
-        <v>479</v>
-      </c>
-      <c r="G27" t="s">
-        <v>275</v>
-      </c>
-      <c r="H27" t="s">
-        <v>822</v>
-      </c>
-      <c r="I27" t="s">
-        <v>241</v>
-      </c>
-      <c r="J27" t="s">
-        <v>249</v>
-      </c>
-      <c r="K27" t="s">
-        <v>838</v>
-      </c>
-      <c r="L27" t="s">
-        <v>932</v>
-      </c>
-      <c r="M27" t="s">
-        <v>933</v>
-      </c>
-      <c r="N27" t="s">
-        <v>934</v>
-      </c>
-      <c r="O27" t="s">
-        <v>935</v>
-      </c>
-      <c r="P27" t="s">
-        <v>843</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>808</v>
-      </c>
-      <c r="R27" t="s">
-        <v>819</v>
-      </c>
-      <c r="S27" t="s">
-        <v>829</v>
-      </c>
-      <c r="T27" t="s">
-        <v>936</v>
-      </c>
-      <c r="U27" t="s">
-        <v>937</v>
-      </c>
-      <c r="V27" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>486</v>
-      </c>
-      <c r="D28" t="s">
-        <v>798</v>
-      </c>
-      <c r="E28" t="s">
-        <v>486</v>
-      </c>
-      <c r="F28" t="s">
-        <v>486</v>
-      </c>
-      <c r="G28" t="s">
-        <v>485</v>
-      </c>
-      <c r="H28" t="s">
-        <v>845</v>
-      </c>
-      <c r="I28" t="s">
-        <v>625</v>
-      </c>
-      <c r="J28" t="s">
-        <v>938</v>
-      </c>
-      <c r="K28" t="s">
-        <v>866</v>
-      </c>
-      <c r="L28" t="s">
-        <v>939</v>
-      </c>
-      <c r="M28" t="s">
-        <v>940</v>
-      </c>
-      <c r="N28" t="s">
-        <v>941</v>
-      </c>
-      <c r="O28" t="s">
-        <v>942</v>
-      </c>
-      <c r="P28" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>808</v>
-      </c>
-      <c r="R28" t="s">
-        <v>809</v>
-      </c>
-      <c r="S28" t="s">
-        <v>810</v>
-      </c>
-      <c r="T28" t="s">
-        <v>157</v>
-      </c>
-      <c r="U28" t="s">
-        <v>157</v>
-      </c>
-      <c r="V28" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>498</v>
-      </c>
-      <c r="D29" t="s">
-        <v>798</v>
-      </c>
-      <c r="E29" t="s">
-        <v>498</v>
-      </c>
-      <c r="F29" t="s">
-        <v>498</v>
-      </c>
-      <c r="G29" t="s">
-        <v>496</v>
-      </c>
-      <c r="H29" t="s">
-        <v>799</v>
-      </c>
-      <c r="I29" t="s">
-        <v>943</v>
-      </c>
-      <c r="J29" t="s">
-        <v>944</v>
-      </c>
-      <c r="K29" t="s">
-        <v>813</v>
-      </c>
-      <c r="L29" t="s">
-        <v>945</v>
-      </c>
-      <c r="M29" t="s">
-        <v>946</v>
-      </c>
-      <c r="N29" t="s">
-        <v>947</v>
-      </c>
-      <c r="O29" t="s">
-        <v>948</v>
-      </c>
-      <c r="P29" t="s">
-        <v>949</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>818</v>
-      </c>
-      <c r="R29" t="s">
-        <v>950</v>
-      </c>
-      <c r="S29" t="s">
-        <v>899</v>
-      </c>
-      <c r="T29" t="s">
-        <v>157</v>
-      </c>
-      <c r="U29" t="s">
-        <v>491</v>
-      </c>
-      <c r="V29" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>506</v>
-      </c>
-      <c r="D30" t="s">
-        <v>798</v>
-      </c>
-      <c r="E30" t="s">
-        <v>506</v>
-      </c>
-      <c r="F30" t="s">
-        <v>506</v>
-      </c>
-      <c r="G30" t="s">
-        <v>345</v>
-      </c>
-      <c r="H30" t="s">
-        <v>845</v>
-      </c>
-      <c r="I30" t="s">
-        <v>504</v>
-      </c>
-      <c r="J30" t="s">
-        <v>504</v>
-      </c>
-      <c r="K30" t="s">
-        <v>866</v>
-      </c>
-      <c r="L30" t="s">
-        <v>891</v>
-      </c>
-      <c r="M30" t="s">
-        <v>951</v>
-      </c>
-      <c r="N30" t="s">
-        <v>952</v>
-      </c>
-      <c r="O30" t="s">
-        <v>953</v>
-      </c>
-      <c r="P30" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>808</v>
-      </c>
-      <c r="R30" t="s">
-        <v>809</v>
-      </c>
-      <c r="S30" t="s">
-        <v>810</v>
-      </c>
-      <c r="T30" t="s">
-        <v>157</v>
-      </c>
-      <c r="U30" t="s">
-        <v>502</v>
-      </c>
-      <c r="V30" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>520</v>
-      </c>
-      <c r="D31" t="s">
-        <v>798</v>
-      </c>
-      <c r="E31" t="s">
-        <v>520</v>
-      </c>
-      <c r="F31" t="s">
-        <v>520</v>
-      </c>
-      <c r="G31" t="s">
-        <v>275</v>
-      </c>
-      <c r="H31" t="s">
-        <v>831</v>
-      </c>
-      <c r="I31" t="s">
-        <v>954</v>
-      </c>
-      <c r="J31" t="s">
-        <v>954</v>
-      </c>
-      <c r="K31" t="s">
-        <v>926</v>
-      </c>
-      <c r="L31" t="s">
-        <v>955</v>
-      </c>
-      <c r="M31" t="s">
-        <v>956</v>
-      </c>
-      <c r="N31" t="s">
-        <v>957</v>
-      </c>
-      <c r="O31" t="s">
-        <v>958</v>
-      </c>
-      <c r="P31" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>959</v>
-      </c>
-      <c r="R31" t="s">
-        <v>809</v>
-      </c>
-      <c r="S31" t="s">
-        <v>820</v>
-      </c>
-      <c r="T31" t="s">
-        <v>157</v>
-      </c>
-      <c r="U31" t="s">
-        <v>157</v>
-      </c>
-      <c r="V31" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>523</v>
-      </c>
-      <c r="D32" t="s">
-        <v>798</v>
-      </c>
-      <c r="E32" t="s">
-        <v>523</v>
-      </c>
-      <c r="F32" t="s">
-        <v>523</v>
-      </c>
-      <c r="G32" t="s">
-        <v>186</v>
-      </c>
-      <c r="H32" t="s">
-        <v>865</v>
-      </c>
-      <c r="I32" t="s">
-        <v>960</v>
-      </c>
-      <c r="J32" t="s">
-        <v>960</v>
-      </c>
-      <c r="K32" t="s">
-        <v>802</v>
-      </c>
-      <c r="L32" t="s">
-        <v>894</v>
-      </c>
-      <c r="M32" t="s">
-        <v>961</v>
-      </c>
-      <c r="N32" t="s">
-        <v>962</v>
-      </c>
-      <c r="O32" t="s">
-        <v>897</v>
-      </c>
-      <c r="P32" t="s">
-        <v>963</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>808</v>
-      </c>
-      <c r="R32" t="s">
-        <v>809</v>
-      </c>
-      <c r="S32" t="s">
-        <v>899</v>
-      </c>
-      <c r="T32" t="s">
-        <v>157</v>
-      </c>
-      <c r="U32" t="s">
-        <v>157</v>
-      </c>
-      <c r="V32" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>533</v>
-      </c>
-      <c r="D33" t="s">
-        <v>798</v>
-      </c>
-      <c r="E33" t="s">
-        <v>533</v>
-      </c>
-      <c r="F33" t="s">
-        <v>533</v>
-      </c>
-      <c r="G33" t="s">
-        <v>275</v>
-      </c>
-      <c r="H33" t="s">
-        <v>964</v>
-      </c>
-      <c r="I33" t="s">
-        <v>965</v>
-      </c>
-      <c r="J33" t="s">
-        <v>965</v>
-      </c>
-      <c r="K33" t="s">
-        <v>813</v>
-      </c>
-      <c r="L33" t="s">
-        <v>814</v>
-      </c>
-      <c r="M33" t="s">
-        <v>815</v>
-      </c>
-      <c r="N33" t="s">
-        <v>922</v>
-      </c>
-      <c r="O33" t="s">
-        <v>923</v>
-      </c>
-      <c r="P33" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>818</v>
-      </c>
-      <c r="R33" t="s">
-        <v>819</v>
-      </c>
-      <c r="S33" t="s">
-        <v>820</v>
-      </c>
-      <c r="T33" t="s">
-        <v>157</v>
-      </c>
-      <c r="U33" t="s">
-        <v>157</v>
-      </c>
-      <c r="V33" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>540</v>
-      </c>
-      <c r="D34" t="s">
-        <v>798</v>
-      </c>
-      <c r="E34" t="s">
-        <v>540</v>
-      </c>
-      <c r="F34" t="s">
-        <v>540</v>
-      </c>
-      <c r="G34" t="s">
-        <v>397</v>
-      </c>
-      <c r="H34" t="s">
-        <v>799</v>
-      </c>
-      <c r="I34" t="s">
-        <v>966</v>
-      </c>
-      <c r="J34" t="s">
-        <v>967</v>
-      </c>
-      <c r="K34" t="s">
-        <v>802</v>
-      </c>
-      <c r="L34" t="s">
-        <v>888</v>
-      </c>
-      <c r="M34" t="s">
-        <v>968</v>
-      </c>
-      <c r="N34" t="s">
-        <v>969</v>
-      </c>
-      <c r="O34" t="s">
-        <v>970</v>
-      </c>
-      <c r="P34" t="s">
-        <v>949</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>808</v>
-      </c>
-      <c r="R34" t="s">
-        <v>809</v>
-      </c>
-      <c r="S34" t="s">
-        <v>810</v>
-      </c>
-      <c r="T34" t="s">
-        <v>971</v>
-      </c>
-      <c r="U34" t="s">
-        <v>359</v>
-      </c>
-      <c r="V34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>547</v>
-      </c>
-      <c r="D35" t="s">
-        <v>798</v>
-      </c>
-      <c r="E35" t="s">
-        <v>547</v>
-      </c>
-      <c r="F35" t="s">
-        <v>547</v>
-      </c>
-      <c r="G35" t="s">
-        <v>166</v>
-      </c>
-      <c r="H35" t="s">
-        <v>799</v>
-      </c>
-      <c r="I35" t="s">
-        <v>545</v>
-      </c>
-      <c r="J35" t="s">
-        <v>545</v>
-      </c>
-      <c r="K35" t="s">
-        <v>866</v>
-      </c>
-      <c r="L35" t="s">
-        <v>939</v>
-      </c>
-      <c r="M35" t="s">
-        <v>868</v>
-      </c>
-      <c r="N35" t="s">
-        <v>972</v>
-      </c>
-      <c r="O35" t="s">
-        <v>897</v>
-      </c>
-      <c r="P35" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>808</v>
-      </c>
-      <c r="R35" t="s">
-        <v>809</v>
-      </c>
-      <c r="S35" t="s">
-        <v>810</v>
-      </c>
-      <c r="T35" t="s">
-        <v>157</v>
-      </c>
-      <c r="U35" t="s">
-        <v>157</v>
-      </c>
-      <c r="V35" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>560</v>
-      </c>
-      <c r="D36" t="s">
-        <v>798</v>
-      </c>
-      <c r="E36" t="s">
-        <v>560</v>
-      </c>
-      <c r="F36" t="s">
-        <v>560</v>
-      </c>
-      <c r="G36" t="s">
-        <v>556</v>
-      </c>
-      <c r="H36" t="s">
-        <v>822</v>
-      </c>
-      <c r="I36" t="s">
-        <v>554</v>
-      </c>
-      <c r="J36" t="s">
-        <v>973</v>
-      </c>
-      <c r="K36" t="s">
-        <v>838</v>
-      </c>
-      <c r="L36" t="s">
-        <v>974</v>
-      </c>
-      <c r="M36" t="s">
-        <v>975</v>
-      </c>
-      <c r="N36" t="s">
-        <v>976</v>
-      </c>
-      <c r="O36" t="s">
-        <v>842</v>
-      </c>
-      <c r="P36" t="s">
-        <v>949</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>808</v>
-      </c>
-      <c r="R36" t="s">
-        <v>819</v>
-      </c>
-      <c r="S36" t="s">
-        <v>829</v>
-      </c>
-      <c r="T36" t="s">
-        <v>977</v>
-      </c>
-      <c r="U36" t="s">
-        <v>157</v>
-      </c>
-      <c r="V36" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>562</v>
-      </c>
-      <c r="D37" t="s">
-        <v>798</v>
-      </c>
-      <c r="E37" t="s">
-        <v>562</v>
-      </c>
-      <c r="F37" t="s">
-        <v>562</v>
-      </c>
-      <c r="G37" t="s">
-        <v>324</v>
-      </c>
-      <c r="H37" t="s">
-        <v>845</v>
-      </c>
-      <c r="I37" t="s">
-        <v>504</v>
-      </c>
-      <c r="J37" t="s">
-        <v>504</v>
-      </c>
-      <c r="K37" t="s">
-        <v>866</v>
-      </c>
-      <c r="L37" t="s">
-        <v>891</v>
-      </c>
-      <c r="M37" t="s">
-        <v>978</v>
-      </c>
-      <c r="N37" t="s">
-        <v>952</v>
-      </c>
-      <c r="O37" t="s">
-        <v>953</v>
-      </c>
-      <c r="P37" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>808</v>
-      </c>
-      <c r="R37" t="s">
-        <v>809</v>
-      </c>
-      <c r="S37" t="s">
-        <v>810</v>
-      </c>
-      <c r="T37" t="s">
-        <v>157</v>
-      </c>
-      <c r="U37" t="s">
-        <v>157</v>
-      </c>
-      <c r="V37" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>571</v>
-      </c>
-      <c r="D38" t="s">
-        <v>798</v>
-      </c>
-      <c r="E38" t="s">
-        <v>571</v>
-      </c>
-      <c r="F38" t="s">
-        <v>571</v>
-      </c>
-      <c r="G38" t="s">
-        <v>570</v>
-      </c>
-      <c r="H38" t="s">
-        <v>831</v>
-      </c>
-      <c r="I38" t="s">
-        <v>979</v>
-      </c>
-      <c r="J38" t="s">
-        <v>980</v>
-      </c>
-      <c r="K38" t="s">
-        <v>823</v>
-      </c>
-      <c r="L38" t="s">
-        <v>974</v>
-      </c>
-      <c r="M38" t="s">
-        <v>981</v>
-      </c>
-      <c r="N38" t="s">
-        <v>982</v>
-      </c>
-      <c r="O38" t="s">
-        <v>983</v>
-      </c>
-      <c r="P38" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>828</v>
-      </c>
-      <c r="R38" t="s">
-        <v>837</v>
-      </c>
-      <c r="S38" t="s">
-        <v>829</v>
-      </c>
-      <c r="T38" t="s">
-        <v>157</v>
-      </c>
-      <c r="U38" t="s">
-        <v>157</v>
-      </c>
-      <c r="V38" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>574</v>
-      </c>
-      <c r="C39" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>589</v>
-      </c>
-      <c r="D40" t="s">
-        <v>798</v>
-      </c>
-      <c r="E40" t="s">
-        <v>589</v>
-      </c>
-      <c r="F40" t="s">
-        <v>589</v>
-      </c>
-      <c r="G40" t="s">
-        <v>261</v>
-      </c>
-      <c r="H40" t="s">
-        <v>984</v>
-      </c>
-      <c r="I40" t="s">
-        <v>985</v>
-      </c>
-      <c r="J40" t="s">
-        <v>985</v>
-      </c>
-      <c r="K40" t="s">
-        <v>866</v>
-      </c>
-      <c r="L40" t="s">
-        <v>986</v>
-      </c>
-      <c r="M40" t="s">
-        <v>861</v>
-      </c>
-      <c r="N40" t="s">
-        <v>987</v>
-      </c>
-      <c r="O40" t="s">
-        <v>988</v>
-      </c>
-      <c r="P40" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>808</v>
-      </c>
-      <c r="R40" t="s">
-        <v>809</v>
-      </c>
-      <c r="S40" t="s">
-        <v>989</v>
-      </c>
-      <c r="T40" t="s">
-        <v>990</v>
-      </c>
-      <c r="U40" t="s">
-        <v>292</v>
-      </c>
-      <c r="V40" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>598</v>
-      </c>
-      <c r="D41" t="s">
-        <v>798</v>
-      </c>
-      <c r="E41" t="s">
-        <v>598</v>
-      </c>
-      <c r="F41" t="s">
-        <v>598</v>
-      </c>
-      <c r="G41" t="s">
-        <v>243</v>
-      </c>
-      <c r="H41" t="s">
-        <v>865</v>
-      </c>
-      <c r="I41" t="s">
-        <v>595</v>
-      </c>
-      <c r="J41" t="s">
-        <v>991</v>
-      </c>
-      <c r="K41" t="s">
-        <v>802</v>
-      </c>
-      <c r="L41" t="s">
-        <v>992</v>
-      </c>
-      <c r="M41" t="s">
-        <v>993</v>
-      </c>
-      <c r="N41" t="s">
-        <v>994</v>
-      </c>
-      <c r="O41" t="s">
-        <v>995</v>
-      </c>
-      <c r="P41" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>808</v>
-      </c>
-      <c r="R41" t="s">
-        <v>809</v>
-      </c>
-      <c r="S41" t="s">
-        <v>899</v>
-      </c>
-      <c r="T41" t="s">
-        <v>157</v>
-      </c>
-      <c r="U41" t="s">
-        <v>157</v>
-      </c>
-      <c r="V41" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>606</v>
-      </c>
-      <c r="D42" t="s">
-        <v>798</v>
-      </c>
-      <c r="E42" t="s">
-        <v>606</v>
-      </c>
-      <c r="F42" t="s">
-        <v>606</v>
-      </c>
-      <c r="G42" t="s">
-        <v>605</v>
-      </c>
-      <c r="H42" t="s">
-        <v>799</v>
-      </c>
-      <c r="I42" t="s">
-        <v>996</v>
-      </c>
-      <c r="J42" t="s">
-        <v>603</v>
-      </c>
-      <c r="K42" t="s">
-        <v>866</v>
-      </c>
-      <c r="L42" t="s">
-        <v>997</v>
-      </c>
-      <c r="M42" t="s">
-        <v>998</v>
-      </c>
-      <c r="N42" t="s">
-        <v>972</v>
-      </c>
-      <c r="O42" t="s">
-        <v>999</v>
-      </c>
-      <c r="P42" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>808</v>
-      </c>
-      <c r="R42" t="s">
-        <v>809</v>
-      </c>
-      <c r="S42" t="s">
-        <v>810</v>
-      </c>
-      <c r="T42" t="s">
-        <v>157</v>
-      </c>
-      <c r="U42" t="s">
-        <v>157</v>
-      </c>
-      <c r="V42" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>612</v>
-      </c>
-      <c r="D43" t="s">
-        <v>798</v>
-      </c>
-      <c r="E43" t="s">
-        <v>612</v>
-      </c>
-      <c r="F43" t="s">
-        <v>612</v>
-      </c>
-      <c r="G43" t="s">
-        <v>397</v>
-      </c>
-      <c r="H43" t="s">
-        <v>822</v>
-      </c>
-      <c r="I43" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J43" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K43" t="s">
-        <v>838</v>
-      </c>
-      <c r="L43" t="s">
-        <v>1002</v>
-      </c>
-      <c r="M43" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N43" t="s">
-        <v>1004</v>
-      </c>
-      <c r="O43" t="s">
-        <v>935</v>
-      </c>
-      <c r="P43" t="s">
-        <v>949</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>808</v>
-      </c>
-      <c r="R43" t="s">
-        <v>819</v>
-      </c>
-      <c r="S43" t="s">
-        <v>829</v>
-      </c>
-      <c r="T43" t="s">
-        <v>936</v>
-      </c>
-      <c r="U43" t="s">
-        <v>937</v>
-      </c>
-      <c r="V43" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>619</v>
-      </c>
-      <c r="D44" t="s">
-        <v>798</v>
-      </c>
-      <c r="E44" t="s">
-        <v>619</v>
-      </c>
-      <c r="F44" t="s">
-        <v>619</v>
-      </c>
-      <c r="G44" t="s">
-        <v>324</v>
-      </c>
-      <c r="H44" t="s">
-        <v>822</v>
-      </c>
-      <c r="I44" t="s">
-        <v>616</v>
-      </c>
-      <c r="J44" t="s">
-        <v>860</v>
-      </c>
-      <c r="K44" t="s">
-        <v>823</v>
-      </c>
-      <c r="L44" t="s">
-        <v>824</v>
-      </c>
-      <c r="M44" t="s">
-        <v>1005</v>
-      </c>
-      <c r="N44" t="s">
-        <v>1006</v>
-      </c>
-      <c r="O44" t="s">
-        <v>1007</v>
-      </c>
-      <c r="P44" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>828</v>
-      </c>
-      <c r="R44" t="s">
-        <v>819</v>
-      </c>
-      <c r="S44" t="s">
-        <v>829</v>
-      </c>
-      <c r="T44" t="s">
-        <v>1008</v>
-      </c>
-      <c r="U44" t="s">
-        <v>157</v>
-      </c>
-      <c r="V44" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>624</v>
-      </c>
-      <c r="D45" t="s">
-        <v>798</v>
-      </c>
-      <c r="E45" t="s">
-        <v>624</v>
-      </c>
-      <c r="F45" t="s">
-        <v>624</v>
-      </c>
-      <c r="G45" t="s">
-        <v>345</v>
-      </c>
-      <c r="H45" t="s">
-        <v>822</v>
-      </c>
-      <c r="I45" t="s">
-        <v>1009</v>
-      </c>
-      <c r="J45" t="s">
-        <v>1010</v>
-      </c>
-      <c r="K45" t="s">
-        <v>838</v>
-      </c>
-      <c r="L45" t="s">
-        <v>1011</v>
-      </c>
-      <c r="M45" t="s">
-        <v>1012</v>
-      </c>
-      <c r="N45" t="s">
-        <v>1013</v>
-      </c>
-      <c r="O45" t="s">
-        <v>935</v>
-      </c>
-      <c r="P45" t="s">
-        <v>949</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>808</v>
-      </c>
-      <c r="R45" t="s">
-        <v>819</v>
-      </c>
-      <c r="S45" t="s">
-        <v>829</v>
-      </c>
-      <c r="T45" t="s">
-        <v>1014</v>
-      </c>
-      <c r="U45" t="s">
-        <v>620</v>
-      </c>
-      <c r="V45" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>627</v>
-      </c>
-      <c r="D46" t="s">
-        <v>798</v>
-      </c>
-      <c r="E46" t="s">
-        <v>627</v>
-      </c>
-      <c r="F46" t="s">
-        <v>627</v>
-      </c>
-      <c r="G46" t="s">
-        <v>556</v>
-      </c>
-      <c r="H46" t="s">
-        <v>845</v>
-      </c>
-      <c r="I46" t="s">
-        <v>625</v>
-      </c>
-      <c r="J46" t="s">
-        <v>625</v>
-      </c>
-      <c r="K46" t="s">
-        <v>866</v>
-      </c>
-      <c r="L46" t="s">
-        <v>939</v>
-      </c>
-      <c r="M46" t="s">
-        <v>1015</v>
-      </c>
-      <c r="N46" t="s">
-        <v>1016</v>
-      </c>
-      <c r="O46" t="s">
-        <v>1017</v>
-      </c>
-      <c r="P46" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>808</v>
-      </c>
-      <c r="R46" t="s">
-        <v>809</v>
-      </c>
-      <c r="S46" t="s">
-        <v>810</v>
-      </c>
-      <c r="T46" t="s">
-        <v>157</v>
-      </c>
-      <c r="U46" t="s">
-        <v>1018</v>
-      </c>
-      <c r="V46" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>639</v>
-      </c>
-      <c r="D47" t="s">
-        <v>798</v>
-      </c>
-      <c r="E47" t="s">
-        <v>639</v>
-      </c>
-      <c r="F47" t="s">
-        <v>639</v>
-      </c>
-      <c r="G47" t="s">
-        <v>345</v>
-      </c>
-      <c r="H47" t="s">
-        <v>845</v>
-      </c>
-      <c r="I47" t="s">
-        <v>634</v>
-      </c>
-      <c r="J47" t="s">
-        <v>1019</v>
-      </c>
-      <c r="K47" t="s">
-        <v>926</v>
-      </c>
-      <c r="L47" t="s">
-        <v>1020</v>
-      </c>
-      <c r="M47" t="s">
-        <v>1021</v>
-      </c>
-      <c r="N47" t="s">
-        <v>1022</v>
-      </c>
-      <c r="O47" t="s">
-        <v>970</v>
-      </c>
-      <c r="P47" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>828</v>
-      </c>
-      <c r="R47" t="s">
-        <v>809</v>
-      </c>
-      <c r="S47" t="s">
-        <v>882</v>
-      </c>
-      <c r="T47" t="s">
-        <v>157</v>
-      </c>
-      <c r="U47" t="s">
-        <v>157</v>
-      </c>
-      <c r="V47" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>649</v>
-      </c>
-      <c r="D48" t="s">
-        <v>798</v>
-      </c>
-      <c r="E48" t="s">
-        <v>649</v>
-      </c>
-      <c r="F48" t="s">
-        <v>649</v>
-      </c>
-      <c r="G48" t="s">
-        <v>1023</v>
-      </c>
-      <c r="H48" t="s">
-        <v>845</v>
-      </c>
-      <c r="I48" t="s">
-        <v>1024</v>
-      </c>
-      <c r="J48" t="s">
-        <v>1024</v>
-      </c>
-      <c r="K48" t="s">
-        <v>802</v>
-      </c>
-      <c r="L48" t="s">
-        <v>909</v>
-      </c>
-      <c r="M48" t="s">
-        <v>1025</v>
-      </c>
-      <c r="N48" t="s">
-        <v>1026</v>
-      </c>
-      <c r="O48" t="s">
-        <v>923</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>828</v>
-      </c>
-      <c r="T48" t="s">
-        <v>157</v>
-      </c>
-      <c r="U48" t="s">
-        <v>157</v>
-      </c>
-      <c r="V48" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>658</v>
-      </c>
-      <c r="D49" t="s">
-        <v>798</v>
-      </c>
-      <c r="E49" t="s">
-        <v>658</v>
-      </c>
-      <c r="F49" t="s">
-        <v>658</v>
-      </c>
-      <c r="G49" t="s">
-        <v>345</v>
-      </c>
-      <c r="H49" t="s">
-        <v>865</v>
-      </c>
-      <c r="I49" t="s">
-        <v>1027</v>
-      </c>
-      <c r="J49" t="s">
-        <v>1027</v>
-      </c>
-      <c r="K49" t="s">
-        <v>1028</v>
-      </c>
-      <c r="L49" t="s">
-        <v>1029</v>
-      </c>
-      <c r="M49" t="s">
-        <v>1030</v>
-      </c>
-      <c r="N49" t="s">
-        <v>1031</v>
-      </c>
-      <c r="O49" t="s">
-        <v>912</v>
-      </c>
-      <c r="P49" t="s">
-        <v>949</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>808</v>
-      </c>
-      <c r="R49" t="s">
-        <v>837</v>
-      </c>
-      <c r="S49" t="s">
-        <v>810</v>
-      </c>
-      <c r="T49" t="s">
-        <v>157</v>
-      </c>
-      <c r="U49" t="s">
-        <v>157</v>
-      </c>
-      <c r="V49" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>674</v>
-      </c>
-      <c r="D50" t="s">
-        <v>798</v>
-      </c>
-      <c r="E50" t="s">
-        <v>674</v>
-      </c>
-      <c r="F50" t="s">
-        <v>674</v>
-      </c>
-      <c r="G50" t="s">
-        <v>207</v>
-      </c>
-      <c r="H50" t="s">
-        <v>1032</v>
-      </c>
-      <c r="I50" t="s">
-        <v>1033</v>
-      </c>
-      <c r="J50" t="s">
-        <v>1033</v>
-      </c>
-      <c r="K50" t="s">
-        <v>813</v>
-      </c>
-      <c r="L50" t="s">
-        <v>1034</v>
-      </c>
-      <c r="M50" t="s">
-        <v>1035</v>
-      </c>
-      <c r="N50" t="s">
-        <v>1036</v>
-      </c>
-      <c r="O50" t="s">
-        <v>1037</v>
-      </c>
-      <c r="P50" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>818</v>
-      </c>
-      <c r="R50" t="s">
-        <v>837</v>
-      </c>
-      <c r="S50" t="s">
-        <v>820</v>
-      </c>
-      <c r="T50" t="s">
-        <v>1038</v>
-      </c>
-      <c r="U50" t="s">
-        <v>900</v>
-      </c>
-      <c r="V50" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
-      <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>687</v>
-      </c>
-      <c r="D51" t="s">
-        <v>798</v>
-      </c>
-      <c r="E51" t="s">
-        <v>687</v>
-      </c>
-      <c r="F51" t="s">
-        <v>687</v>
-      </c>
-      <c r="G51" t="s">
-        <v>275</v>
-      </c>
-      <c r="H51" t="s">
-        <v>845</v>
-      </c>
-      <c r="I51" t="s">
-        <v>681</v>
-      </c>
-      <c r="J51" t="s">
-        <v>1039</v>
-      </c>
-      <c r="K51" t="s">
-        <v>1040</v>
-      </c>
-      <c r="L51" t="s">
-        <v>1041</v>
-      </c>
-      <c r="M51" t="s">
-        <v>1042</v>
-      </c>
-      <c r="N51" t="s">
-        <v>1043</v>
-      </c>
-      <c r="O51" t="s">
-        <v>893</v>
-      </c>
-      <c r="P51" t="s">
-        <v>949</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>808</v>
-      </c>
-      <c r="R51" t="s">
-        <v>809</v>
-      </c>
-      <c r="S51" t="s">
-        <v>899</v>
-      </c>
-      <c r="T51" t="s">
-        <v>157</v>
-      </c>
-      <c r="U51" t="s">
-        <v>157</v>
-      </c>
-      <c r="V51" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>694</v>
-      </c>
-      <c r="D52" t="s">
-        <v>798</v>
-      </c>
-      <c r="E52" t="s">
-        <v>694</v>
-      </c>
-      <c r="F52" t="s">
-        <v>694</v>
-      </c>
-      <c r="G52" t="s">
-        <v>362</v>
-      </c>
-      <c r="H52" t="s">
-        <v>865</v>
-      </c>
-      <c r="I52" t="s">
-        <v>691</v>
-      </c>
-      <c r="J52" t="s">
-        <v>1044</v>
-      </c>
-      <c r="K52" t="s">
-        <v>1040</v>
-      </c>
-      <c r="L52" t="s">
-        <v>1045</v>
-      </c>
-      <c r="M52" t="s">
-        <v>1046</v>
-      </c>
-      <c r="N52" t="s">
-        <v>1047</v>
-      </c>
-      <c r="O52" t="s">
-        <v>1017</v>
-      </c>
-      <c r="P52" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>808</v>
-      </c>
-      <c r="R52" t="s">
-        <v>809</v>
-      </c>
-      <c r="S52" t="s">
-        <v>899</v>
-      </c>
-      <c r="T52" t="s">
-        <v>1048</v>
-      </c>
-      <c r="U52" t="s">
-        <v>157</v>
-      </c>
-      <c r="V52" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
-      <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>709</v>
-      </c>
-      <c r="D53" t="s">
-        <v>798</v>
-      </c>
-      <c r="E53" t="s">
-        <v>709</v>
-      </c>
-      <c r="F53" t="s">
-        <v>709</v>
-      </c>
-      <c r="G53" t="s">
-        <v>275</v>
-      </c>
-      <c r="H53" t="s">
-        <v>831</v>
-      </c>
-      <c r="I53" t="s">
-        <v>1049</v>
-      </c>
-      <c r="J53" t="s">
-        <v>1050</v>
-      </c>
-      <c r="K53" t="s">
-        <v>838</v>
-      </c>
-      <c r="L53" t="s">
-        <v>1051</v>
-      </c>
-      <c r="M53" t="s">
-        <v>1052</v>
-      </c>
-      <c r="N53" t="s">
-        <v>1053</v>
-      </c>
-      <c r="O53" t="s">
-        <v>1054</v>
-      </c>
-      <c r="P53" t="s">
-        <v>949</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>1055</v>
-      </c>
-      <c r="R53" t="s">
-        <v>837</v>
-      </c>
-      <c r="S53" t="s">
-        <v>1056</v>
-      </c>
-      <c r="T53" t="s">
-        <v>157</v>
-      </c>
-      <c r="U53" t="s">
-        <v>264</v>
-      </c>
-      <c r="V53" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
-      <c r="A54">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>716</v>
-      </c>
-      <c r="D54" t="s">
-        <v>798</v>
-      </c>
-      <c r="E54" t="s">
-        <v>716</v>
-      </c>
-      <c r="F54" t="s">
-        <v>716</v>
-      </c>
-      <c r="G54" t="s">
-        <v>714</v>
-      </c>
-      <c r="H54" t="s">
-        <v>831</v>
-      </c>
-      <c r="I54" t="s">
-        <v>1057</v>
-      </c>
-      <c r="J54" t="s">
-        <v>1058</v>
-      </c>
-      <c r="K54" t="s">
-        <v>813</v>
-      </c>
-      <c r="L54" t="s">
-        <v>1020</v>
-      </c>
-      <c r="M54" t="s">
-        <v>1059</v>
-      </c>
-      <c r="N54" t="s">
-        <v>1060</v>
-      </c>
-      <c r="O54" t="s">
-        <v>1061</v>
-      </c>
-      <c r="P54" t="s">
-        <v>898</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>881</v>
-      </c>
-      <c r="R54" t="s">
-        <v>819</v>
-      </c>
-      <c r="S54" t="s">
-        <v>820</v>
-      </c>
-      <c r="T54" t="s">
-        <v>157</v>
-      </c>
-      <c r="U54" t="s">
-        <v>157</v>
-      </c>
-      <c r="V54" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22">
-      <c r="A55">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>721</v>
-      </c>
-      <c r="C55" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22">
-      <c r="A56">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>731</v>
-      </c>
-      <c r="C56" t="s">
-        <v>883</v>
-      </c>
-      <c r="D56" t="s">
-        <v>798</v>
-      </c>
-      <c r="E56" t="s">
-        <v>731</v>
-      </c>
-      <c r="F56" t="s">
-        <v>731</v>
-      </c>
-      <c r="G56" t="s">
-        <v>884</v>
-      </c>
-      <c r="H56" t="s">
-        <v>884</v>
-      </c>
-      <c r="I56" t="s">
-        <v>884</v>
-      </c>
-      <c r="J56" t="s">
-        <v>884</v>
-      </c>
-      <c r="L56" t="s">
-        <v>884</v>
-      </c>
-      <c r="M56" t="s">
-        <v>815</v>
-      </c>
-      <c r="N56" t="s">
-        <v>885</v>
-      </c>
-      <c r="O56" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22">
-      <c r="A57">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>732</v>
-      </c>
-      <c r="C57" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22">
-      <c r="A58">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>740</v>
-      </c>
-      <c r="D58" t="s">
-        <v>798</v>
-      </c>
-      <c r="E58" t="s">
-        <v>740</v>
-      </c>
-      <c r="F58" t="s">
-        <v>740</v>
-      </c>
-      <c r="G58" t="s">
-        <v>207</v>
-      </c>
-      <c r="H58" t="s">
-        <v>831</v>
-      </c>
-      <c r="I58" t="s">
-        <v>1062</v>
-      </c>
-      <c r="J58" t="s">
-        <v>1062</v>
-      </c>
-      <c r="K58" t="s">
-        <v>866</v>
-      </c>
-      <c r="L58" t="s">
-        <v>1063</v>
-      </c>
-      <c r="M58" t="s">
-        <v>1064</v>
-      </c>
-      <c r="N58" t="s">
-        <v>1065</v>
-      </c>
-      <c r="O58" t="s">
-        <v>1066</v>
-      </c>
-      <c r="P58" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>808</v>
-      </c>
-      <c r="R58" t="s">
-        <v>809</v>
-      </c>
-      <c r="S58" t="s">
-        <v>810</v>
-      </c>
-      <c r="T58" t="s">
-        <v>157</v>
-      </c>
-      <c r="U58" t="s">
-        <v>157</v>
-      </c>
-      <c r="V58" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22">
-      <c r="A59">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>749</v>
-      </c>
-      <c r="D59" t="s">
-        <v>798</v>
-      </c>
-      <c r="E59" t="s">
-        <v>749</v>
-      </c>
-      <c r="F59" t="s">
-        <v>749</v>
-      </c>
-      <c r="G59" t="s">
-        <v>746</v>
-      </c>
-      <c r="H59" t="s">
-        <v>822</v>
-      </c>
-      <c r="I59" t="s">
-        <v>748</v>
-      </c>
-      <c r="J59" t="s">
-        <v>744</v>
-      </c>
-      <c r="K59" t="s">
-        <v>823</v>
-      </c>
-      <c r="L59" t="s">
-        <v>888</v>
-      </c>
-      <c r="M59" t="s">
-        <v>1067</v>
-      </c>
-      <c r="N59" t="s">
-        <v>1068</v>
-      </c>
-      <c r="O59" t="s">
-        <v>923</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>828</v>
-      </c>
-      <c r="T59" t="s">
-        <v>157</v>
-      </c>
-      <c r="U59" t="s">
-        <v>157</v>
-      </c>
-      <c r="V59" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22">
-      <c r="A60">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>759</v>
-      </c>
-      <c r="D60" t="s">
-        <v>798</v>
-      </c>
-      <c r="E60" t="s">
-        <v>759</v>
-      </c>
-      <c r="F60" t="s">
-        <v>759</v>
-      </c>
-      <c r="G60" t="s">
-        <v>275</v>
-      </c>
-      <c r="H60" t="s">
-        <v>865</v>
-      </c>
-      <c r="I60" t="s">
-        <v>1069</v>
-      </c>
-      <c r="J60" t="s">
-        <v>1069</v>
-      </c>
-      <c r="K60" t="s">
-        <v>802</v>
-      </c>
-      <c r="L60" t="s">
-        <v>1045</v>
-      </c>
-      <c r="M60" t="s">
-        <v>1070</v>
-      </c>
-      <c r="N60" t="s">
-        <v>1071</v>
-      </c>
-      <c r="O60" t="s">
-        <v>999</v>
-      </c>
-      <c r="P60" t="s">
-        <v>963</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>808</v>
-      </c>
-      <c r="R60" t="s">
-        <v>809</v>
-      </c>
-      <c r="S60" t="s">
-        <v>899</v>
-      </c>
-      <c r="T60" t="s">
-        <v>157</v>
-      </c>
-      <c r="U60" t="s">
-        <v>157</v>
-      </c>
-      <c r="V60" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22">
-      <c r="A61">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>772</v>
-      </c>
-      <c r="D61" t="s">
-        <v>798</v>
-      </c>
-      <c r="E61" t="s">
-        <v>772</v>
-      </c>
-      <c r="F61" t="s">
-        <v>772</v>
-      </c>
-      <c r="G61" t="s">
-        <v>556</v>
-      </c>
-      <c r="H61" t="s">
-        <v>764</v>
-      </c>
-      <c r="I61" t="s">
-        <v>1072</v>
-      </c>
-      <c r="J61" t="s">
-        <v>1072</v>
-      </c>
-      <c r="K61" t="s">
-        <v>902</v>
-      </c>
-      <c r="L61" t="s">
-        <v>1073</v>
-      </c>
-      <c r="M61" t="s">
-        <v>1074</v>
-      </c>
-      <c r="N61" t="s">
-        <v>1075</v>
-      </c>
-      <c r="O61" t="s">
-        <v>1076</v>
-      </c>
-      <c r="P61" t="s">
-        <v>949</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>828</v>
-      </c>
-      <c r="R61" t="s">
-        <v>809</v>
-      </c>
-      <c r="S61" t="s">
-        <v>820</v>
-      </c>
-      <c r="T61" t="s">
-        <v>594</v>
-      </c>
-      <c r="U61" t="s">
-        <v>174</v>
-      </c>
-      <c r="V61" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22">
-      <c r="A62">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>781</v>
-      </c>
-      <c r="D62" t="s">
-        <v>798</v>
-      </c>
-      <c r="E62" t="s">
-        <v>781</v>
-      </c>
-      <c r="F62" t="s">
-        <v>781</v>
-      </c>
-      <c r="G62" t="s">
-        <v>345</v>
-      </c>
-      <c r="H62" t="s">
-        <v>764</v>
-      </c>
-      <c r="I62" t="s">
-        <v>1077</v>
-      </c>
-      <c r="J62" t="s">
-        <v>1077</v>
-      </c>
-      <c r="K62" t="s">
-        <v>1028</v>
-      </c>
-      <c r="L62" t="s">
-        <v>1078</v>
-      </c>
-      <c r="M62" t="s">
-        <v>1079</v>
-      </c>
-      <c r="N62" t="s">
-        <v>1026</v>
-      </c>
-      <c r="O62" t="s">
-        <v>1080</v>
-      </c>
-      <c r="P62" t="s">
-        <v>949</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>808</v>
-      </c>
-      <c r="R62" t="s">
-        <v>837</v>
-      </c>
-      <c r="S62" t="s">
-        <v>1081</v>
-      </c>
-      <c r="T62" t="s">
-        <v>937</v>
-      </c>
-      <c r="U62" t="s">
-        <v>292</v>
-      </c>
-      <c r="V62" t="s">
-        <v>149</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C62"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>788</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" t="s">
-        <v>802</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" t="s">
-        <v>813</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" t="s">
-        <v>823</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" t="s">
-        <v>802</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6" t="s">
-        <v>823</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>233</v>
-      </c>
-      <c r="B7" t="s">
-        <v>838</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>251</v>
-      </c>
-      <c r="B8" t="s">
-        <v>823</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B9" t="s">
-        <v>813</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" t="s">
-        <v>823</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" t="s">
-        <v>866</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12" t="s">
-        <v>838</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B13" t="s">
-        <v>813</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B14" t="s">
-        <v>813</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>332</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="C16" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B17" t="s">
-        <v>802</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>150</v>
-      </c>
-      <c r="B18" t="s">
-        <v>866</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>150</v>
-      </c>
-      <c r="B19" t="s">
-        <v>802</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>388</v>
-      </c>
-      <c r="B20" t="s">
-        <v>902</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>332</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>251</v>
-      </c>
-      <c r="B22" t="s">
-        <v>823</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>251</v>
-      </c>
-      <c r="B23" t="s">
-        <v>823</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>437</v>
-      </c>
-      <c r="B24" t="s">
-        <v>920</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>452</v>
-      </c>
-      <c r="B25" t="s">
-        <v>926</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="C26" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>233</v>
-      </c>
-      <c r="B27" t="s">
-        <v>838</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" t="s">
-        <v>866</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" t="s">
-        <v>813</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30" t="s">
-        <v>866</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>507</v>
-      </c>
-      <c r="B31" t="s">
-        <v>926</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" t="s">
-        <v>802</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>172</v>
-      </c>
-      <c r="B33" t="s">
-        <v>813</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B34" t="s">
-        <v>802</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>150</v>
-      </c>
-      <c r="B35" t="s">
-        <v>866</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>233</v>
-      </c>
-      <c r="B36" t="s">
-        <v>838</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" t="s">
-        <v>866</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>452</v>
-      </c>
-      <c r="B38" t="s">
-        <v>823</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="C39" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>150</v>
-      </c>
-      <c r="B40" t="s">
-        <v>866</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>150</v>
-      </c>
-      <c r="B41" t="s">
-        <v>802</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>150</v>
-      </c>
-      <c r="B42" t="s">
-        <v>866</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>233</v>
-      </c>
-      <c r="B43" t="s">
-        <v>838</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>193</v>
-      </c>
-      <c r="B44" t="s">
-        <v>823</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>233</v>
-      </c>
-      <c r="B45" t="s">
-        <v>838</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>150</v>
-      </c>
-      <c r="B46" t="s">
-        <v>866</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>628</v>
-      </c>
-      <c r="B47" t="s">
-        <v>926</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>388</v>
-      </c>
-      <c r="B48" t="s">
-        <v>802</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>233</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>172</v>
-      </c>
-      <c r="B50" t="s">
-        <v>813</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>150</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>388</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>233</v>
-      </c>
-      <c r="B53" t="s">
-        <v>838</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>172</v>
-      </c>
-      <c r="B54" t="s">
-        <v>813</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="C55" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>722</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="C57" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>150</v>
-      </c>
-      <c r="B58" t="s">
-        <v>866</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>193</v>
-      </c>
-      <c r="B59" t="s">
-        <v>823</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>150</v>
-      </c>
-      <c r="B60" t="s">
-        <v>802</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>388</v>
-      </c>
-      <c r="B61" t="s">
-        <v>902</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>233</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1087</v>
       </c>
     </row>
   </sheetData>
